--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 16.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 16.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Student Tag</t>
+          <t>S Tag</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -507,7 +507,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 - relating to another student</t>
+          <t>2 - relating to another S</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1003,7 +1003,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1027,7 +1027,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1074,7 +1074,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1097,7 +1097,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1120,7 +1120,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1212,7 +1212,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1512,7 +1512,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1535,7 +1535,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1581,7 +1581,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1627,7 +1627,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1719,7 +1719,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1788,7 +1788,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1834,7 +1834,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1857,7 +1857,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1880,7 +1880,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1949,7 +1949,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2018,7 +2018,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2087,7 +2087,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2133,7 +2133,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2156,7 +2156,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2272,7 +2272,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2295,7 +2295,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2318,7 +2318,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2341,7 +2341,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2364,7 +2364,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2387,7 +2387,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2410,7 +2410,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2456,7 +2456,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
